--- a/Tables/table_FTSE_data.xlsx
+++ b/Tables/table_FTSE_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Giorgio\Desktop\Master\THESIS CODES ETC\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F0976959-8655-46BD-BFA1-A3D996B4897B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E170355E-80CE-4C27-800D-0B514C80F128}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3218" yWindow="3323" windowWidth="16200" windowHeight="9307"/>
+    <workbookView xWindow="368" yWindow="368" windowWidth="16199" windowHeight="9307" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_FTSE_data" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,8 +560,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -607,7 +608,26 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -621,16 +641,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G13" totalsRowShown="0">
+  <autoFilter ref="A1:G13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="MODEL"/>
-    <tableColumn id="2" name="RMSE TRAIN SET"/>
-    <tableColumn id="3" name="NLL TRAIN SET"/>
-    <tableColumn id="4" name="RMSE TEST SET"/>
-    <tableColumn id="5" name="NLL TEST SET"/>
-    <tableColumn id="6" name="alpha"/>
-    <tableColumn id="7" name="beta"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="MODEL"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="RMSE TRAIN SET" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="NLL TRAIN SET" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="RMSE TEST SET" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="NLL TEST SET" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="alpha" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="beta" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -932,11 +952,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="B2" sqref="B2:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -946,6 +966,7 @@
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="14.46484375" customWidth="1"/>
     <col min="5" max="5" width="12.796875" customWidth="1"/>
+    <col min="6" max="7" width="10.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.45">
@@ -975,22 +996,22 @@
       <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1">
         <v>3.8231189405930901</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>11602.7453237673</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="1">
         <v>10.7477358088576</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>1514.4635978000399</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>0.104150788366867</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>0.88556827478717504</v>
       </c>
     </row>
@@ -998,22 +1019,22 @@
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>5.2843097497240104</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="1">
         <v>20316.051187891699</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="1">
         <v>12.7463618419236</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="1">
         <v>3903.9105868486799</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1021,22 +1042,22 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>4.6031716969465197</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>12238.1860091694</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>12.5001398072838</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>3628.2824320333698</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>0.13761347497857901</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>0.77930371303788404</v>
       </c>
     </row>
@@ -1044,22 +1065,22 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>5.4036626673322798</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>20235.932348136601</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>13.909744390849999</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>4984.6534913998603</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1067,22 +1088,22 @@
       <c r="A6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>4.6873244640770499</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>12174.470568377101</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>12.562170139706501</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>2625.6653089939</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>0.14739477295918099</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>0.73936506720560602</v>
       </c>
     </row>
@@ -1090,22 +1111,22 @@
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>5.2953742521100597</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>20237.4085485992</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>13.4466005557736</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>3883.3460783221899</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1113,22 +1134,22 @@
       <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>4.39132494511363</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>7565.3608839258704</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>17.6196151963665</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>-455.04271749848999</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>0.14746525920474601</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="1">
         <v>0.83679223130023705</v>
       </c>
     </row>
@@ -1136,22 +1157,22 @@
       <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>5.75684545929386</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>18829.668584519299</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>18.575408246944701</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>2257.9669479453801</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1159,22 +1180,22 @@
       <c r="A10" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="1">
         <v>5.2095075818502696</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="1">
         <v>11613.713703563501</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="1">
         <v>17.978220945964701</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>2222.8108770266699</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>0.175936279447067</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>0.72101568518501602</v>
       </c>
     </row>
@@ -1182,22 +1203,22 @@
       <c r="A11" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="1">
         <v>5.74056350635135</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="1">
         <v>20821.649736033902</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="1">
         <v>18.9053256414748</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>3116.2196186207102</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="1">
         <v>0</v>
       </c>
     </row>
@@ -1205,22 +1226,22 @@
       <c r="A12" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="1">
         <v>4.8511573040116396</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="1">
         <v>10500.126089679299</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="1">
         <v>13.455073492546401</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="1">
         <v>1852.27410000839</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>0.14601158128436401</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>0.79680684058367501</v>
       </c>
     </row>
@@ -1228,22 +1249,22 @@
       <c r="A13" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>5.5889884571250903</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>19812.1837267345</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="1">
         <v>14.7701349303342</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>3549.6963216281301</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>0</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>0</v>
       </c>
     </row>
